--- a/Delegates.xlsx
+++ b/Delegates.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="358">
   <si>
     <t>First Name</t>
   </si>
@@ -6866,8 +6866,12 @@
       <c r="D159" s="14">
         <v>10750.0</v>
       </c>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
+      <c r="E159" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="G159" s="14" t="b">
         <v>1</v>
       </c>
